--- a/DataGenerator/XLSXS/DokkaebiData.xlsx
+++ b/DataGenerator/XLSXS/DokkaebiData.xlsx
@@ -1,24 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\AngelBeat\DataGenerator\XLSXS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD05E8C-D34A-4EFF-B558-39024D66D8D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="SkillRange" sheetId="1" r:id="rId4"/>
+    <sheet name="SkillRange" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="C1">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
-        <t xml:space="preserve">이 칼럼부터 공식 세워지면 노티 후 지울 것</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>이 칼럼부터 공식 세워지면 노티 후 지울 것</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -26,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>도깨비 ID</t>
   </si>
@@ -104,22 +121,44 @@
   </si>
   <si>
     <t>연</t>
+  </si>
+  <si>
+    <t>LD_Yeon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yeon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -127,7 +166,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -143,47 +182,50 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -373,24 +415,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -429,11 +476,11 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -472,11 +519,11 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -515,136 +562,141 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4">
-      <c r="A4" s="3">
-        <v>5.8776974E7</v>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>58776974</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1.0</v>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
+      <c r="J4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5">
-      <c r="A5" s="3"/>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6">
-      <c r="A6" s="3"/>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="6"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="5"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="6"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="5"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="6"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="5"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/DataGenerator/XLSXS/DokkaebiData.xlsx
+++ b/DataGenerator/XLSXS/DokkaebiData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\AngelBeat\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD05E8C-D34A-4EFF-B558-39024D66D8D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624E9598-DDB0-45D5-B950-AF57A3584667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -135,7 +135,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -159,6 +159,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -193,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -207,6 +214,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -428,7 +436,7 @@
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -563,8 +571,8 @@
       <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>58776974</v>
+      <c r="A4" s="7">
+        <v>10010001</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>25</v>

--- a/DataGenerator/XLSXS/DokkaebiData.xlsx
+++ b/DataGenerator/XLSXS/DokkaebiData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\AngelBeat\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624E9598-DDB0-45D5-B950-AF57A3584667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6E3ED3-03B2-496C-9CD7-693793C4B170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3697" yWindow="3697" windowWidth="18668" windowHeight="9983" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillRange" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>도깨비 ID</t>
   </si>
@@ -129,6 +129,12 @@
   <si>
     <t>Yeon</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrefabRoot</t>
+  </si>
+  <si>
+    <t>Yeon</t>
   </si>
 </sst>
 </file>
@@ -200,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -215,6 +221,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -436,7 +445,7 @@
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -475,7 +484,9 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1"/>
+      <c r="L1" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -518,7 +529,9 @@
       <c r="K2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="1"/>
+      <c r="L2" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -561,7 +574,9 @@
       <c r="K3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="1"/>
+      <c r="L3" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -600,7 +615,9 @@
       <c r="K4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="2"/>
+      <c r="L4" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>

--- a/DataGenerator/XLSXS/DokkaebiData.xlsx
+++ b/DataGenerator/XLSXS/DokkaebiData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\AngelBeat\DataGenerator\XLSXS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungs\Desktop\AngelBeat\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6E3ED3-03B2-496C-9CD7-693793C4B170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB55A034-5F4B-4F14-AA30-E6A0B49DE12A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3697" yWindow="3697" windowWidth="18668" windowHeight="9983" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="610" yWindow="480" windowWidth="17120" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillRange" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>이 칼럼부터 공식 세워지면 노티 후 지울 것</t>
@@ -152,6 +153,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -445,12 +447,12 @@
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,7 +497,7 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -540,7 +542,7 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -585,9 +587,9 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>10010001</v>
+        <v>10001001</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>25</v>
@@ -626,7 +628,7 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -647,7 +649,7 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -665,7 +667,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
@@ -683,7 +685,7 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
@@ -701,7 +703,7 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
